--- a/medicine/Psychotrope/Saint-Macaire_(cépage)/Saint-Macaire_(cépage).xlsx
+++ b/medicine/Psychotrope/Saint-Macaire_(cépage)/Saint-Macaire_(cépage).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Saint-Macaire_(c%C3%A9page)</t>
+          <t>Saint-Macaire_(cépage)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Le Saint Macaire N[1],[N 1] est un cépage noir France.
+Le Saint Macaire N,[N 1] est un cépage noir France.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Saint-Macaire_(c%C3%A9page)</t>
+          <t>Saint-Macaire_(cépage)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,9 +524,11 @@
           <t>Origine et répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il appartient à la famille des Carmenets. Il est originaire des palus[2] du sud du vignoble de Bordeaux. Il n'a jamais quitté sa région d'origine et est aujourd'hui en voie de disparition puisqu'il est passé entre 1958 et 1994, de 200 à 2 ha[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il appartient à la famille des Carmenets. Il est originaire des palus du sud du vignoble de Bordeaux. Il n'a jamais quitté sa région d'origine et est aujourd'hui en voie de disparition puisqu'il est passé entre 1958 et 1994, de 200 à 2 ha.
 </t>
         </is>
       </c>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Saint-Macaire_(c%C3%A9page)</t>
+          <t>Saint-Macaire_(cépage)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Étymologie et synonymie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Il tire son nom du port sur la Garonne de Saint-Macaire. Il a aussi été appelé moustouzère, moustère (moût visqueux ou raisin à baies molles) ou bouton blanc. (bourgeonnement cotonneux)
 </t>
@@ -556,7 +572,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Saint-Macaire_(c%C3%A9page)</t>
+          <t>Saint-Macaire_(cépage)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -574,7 +590,9 @@
           <t>Caractères ampélographiques</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Bourgeonnement cotonneux à liseré rosé.
 Jeunes feuilles duveteuses jaunâtres.
@@ -589,7 +607,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Saint-Macaire_(c%C3%A9page)</t>
+          <t>Saint-Macaire_(cépage)</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -607,7 +625,9 @@
           <t>Aptitudes</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Culturales: Vigoureux et peu fertile, il nécessite une taille longue.
 Sensibilité: oïdium principalement.
